--- a/平台方/接口数据_抓取后的初步处理.xlsx
+++ b/平台方/接口数据_抓取后的初步处理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guolongtao\Desktop\临时用_用完删除内容\共享车位\git_1\平台方\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guolongtao\Desktop\临时用_用完删除内容\共享车位\git_guo_11.17\平台方\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77700005-6D4F-481C-9FAE-F9CAD1F9F703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F36A73-F4CD-4F7D-98F2-12E349D4D593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete_接口" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="253">
   <si>
     <t>module</t>
   </si>
@@ -692,10 +692,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>接口抓取不到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆相关_车位管理_增加</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1096,6 +1092,14 @@
   </si>
   <si>
     <t>车辆相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口抓取不到，界面信息无法填写，或者点击后，功能无法实现；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,13 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,16 +1442,7 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="3" xr:uid="{19D32E12-EB65-47F7-A549-899404347573}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1732,7 +1721,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1767,10 +1756,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1785,10 +1774,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1803,10 +1792,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1821,10 +1810,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1839,10 +1828,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1857,10 +1846,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1875,10 +1864,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1893,10 +1882,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1911,10 +1900,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1960,7 +1949,7 @@
     <col min="2" max="2" width="99.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="15" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="68" style="31" customWidth="1"/>
+    <col min="5" max="5" width="68" style="29" customWidth="1"/>
     <col min="6" max="6" width="255.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -1978,7 +1967,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1986,7 +1975,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1998,7 +1987,7 @@
       <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>129</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2006,10 +1995,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2018,7 +2007,7 @@
       <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>134</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -2026,10 +2015,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2038,7 +2027,7 @@
       <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2046,7 +2035,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2058,7 +2047,7 @@
       <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2066,10 +2055,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2078,7 +2067,7 @@
       <c r="D6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2086,7 +2075,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -2098,7 +2087,7 @@
       <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -2106,7 +2095,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2118,7 +2107,7 @@
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2126,7 +2115,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2138,7 +2127,7 @@
       <c r="D9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="27" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -2146,10 +2135,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2158,7 +2147,7 @@
       <c r="D10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2166,7 +2155,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2178,7 +2167,7 @@
       <c r="D11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2186,7 +2175,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="30"/>
+      <c r="E12" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2210,7 +2199,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:F8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2208,7 @@
     <col min="2" max="2" width="89.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="33" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="146.21875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="146.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -2237,7 +2226,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2245,10 +2234,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2257,7 +2246,7 @@
       <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>141</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2265,10 +2254,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2277,7 +2266,7 @@
       <c r="D3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2285,10 +2274,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2297,7 +2286,7 @@
       <c r="D4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>143</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2305,10 +2294,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2317,7 +2306,7 @@
       <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2325,10 +2314,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2337,7 +2326,7 @@
       <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="34" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2345,10 +2334,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2357,7 +2346,7 @@
       <c r="D7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -2365,10 +2354,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2377,7 +2366,7 @@
       <c r="D8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="34" t="s">
         <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2413,14 +2402,14 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="102.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="38" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" style="15" customWidth="1"/>
     <col min="5" max="5" width="116.77734375" style="13" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
@@ -2448,13 +2437,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2471,10 +2460,10 @@
       <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2488,13 +2477,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2508,13 +2497,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2528,13 +2517,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2548,13 +2537,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2568,13 +2557,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2588,13 +2577,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2608,13 +2597,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2628,13 +2617,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2648,13 +2637,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2669,7 +2658,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2697,13 +2686,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
@@ -2722,63 +2711,67 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F91AD91-C3A7-4DC6-8F87-FA638CF96BE0}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="4" max="4" width="110.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="50.109375" bestFit="1" customWidth="1"/>
@@ -2786,42 +2779,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2836,16 +2829,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2860,16 +2853,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="A4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2884,16 +2877,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2908,16 +2901,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2932,16 +2925,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="A7" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2956,16 +2949,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2980,16 +2973,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="A9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -3004,16 +2997,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="A10" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3028,14 +3021,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>175</v>
+      <c r="A11" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>128</v>
@@ -3046,24 +3039,24 @@
       <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>177</v>
+      <c r="G11" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="A12" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>133</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -3072,24 +3065,24 @@
       <c r="F12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>178</v>
+      <c r="G12" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>139</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -3098,22 +3091,22 @@
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>179</v>
+      <c r="G13" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>175</v>
+      <c r="A14" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>78</v>
@@ -3124,24 +3117,24 @@
       <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>180</v>
+      <c r="G14" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>136</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -3150,22 +3143,22 @@
       <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="47" t="s">
-        <v>181</v>
+      <c r="G15" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>175</v>
+      <c r="A16" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>71</v>
@@ -3176,22 +3169,22 @@
       <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>200</v>
+      <c r="G16" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>175</v>
+      <c r="A17" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>96</v>
@@ -3202,22 +3195,22 @@
       <c r="F17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="47" t="s">
-        <v>182</v>
+      <c r="G17" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>175</v>
+      <c r="A18" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>123</v>
@@ -3228,24 +3221,24 @@
       <c r="F18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>183</v>
+      <c r="G18" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="26" t="s">
+      <c r="A19" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -3254,22 +3247,22 @@
       <c r="F19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="47" t="s">
-        <v>184</v>
+      <c r="G19" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>175</v>
+      <c r="A20" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>125</v>
@@ -3280,24 +3273,24 @@
       <c r="F20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>204</v>
+      <c r="G20" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="A21" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -3306,24 +3299,24 @@
       <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>185</v>
+      <c r="G21" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3332,24 +3325,24 @@
       <c r="F22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>186</v>
+      <c r="G22" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="32" t="s">
+      <c r="A23" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -3358,24 +3351,24 @@
       <c r="F23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>187</v>
+      <c r="G23" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -3384,24 +3377,24 @@
       <c r="F24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>188</v>
+      <c r="G24" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="A25" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -3410,24 +3403,24 @@
       <c r="F25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="36" t="s">
-        <v>201</v>
+      <c r="G25" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="A26" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -3436,24 +3429,24 @@
       <c r="F26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>189</v>
+      <c r="G26" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="A27" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -3462,299 +3455,300 @@
       <c r="F27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="36" t="s">
-        <v>190</v>
+      <c r="G27" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="26" t="s">
+      <c r="A28" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="A29" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="32" t="s">
+      <c r="A30" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="24" t="s">
+      <c r="A31" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="A32" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="26" t="s">
+      <c r="A33" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="24" t="s">
+      <c r="A34" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="34" t="s">
+      <c r="A35" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="A36" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="24" t="s">
+      <c r="A37" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="A38" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="39" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -3803,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E31FDC-ABC7-40C9-8C19-8C8CAA3E9BF8}">
   <dimension ref="E1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3815,321 +3809,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>211</v>
+      <c r="G1" s="40" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>251</v>
-      </c>
       <c r="G3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="27" t="s">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="27" t="s">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="27" t="s">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="27" t="s">
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="27" t="s">
+      <c r="G11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="27" t="s">
+      <c r="G19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="27" t="s">
+      <c r="G20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="G10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="27" t="s">
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="G12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="27" t="s">
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="33" t="s">
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" t="s">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" t="s">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" t="s">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="33" t="s">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="33" t="s">
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="33" t="s">
+      <c r="G35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="33" t="s">
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="G34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="38" t="s">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
